--- a/prove/Develop04/class_diagram.xlsx
+++ b/prove/Develop04/class_diagram.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\da\cse210\cse210-byu\prove\Develop04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A0E214-FCEF-4488-A326-6B1DF987F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D13291-8B5A-403C-A8AD-AD76C1CEED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4593E8EE-613E-4214-9D7C-DAE1F7B07C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$H$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,75 +50,6 @@
     <t>Class Activity</t>
   </si>
   <si>
-    <t>Activity()</t>
-  </si>
-  <si>
-    <t>BreathingActivity()</t>
-  </si>
-  <si>
-    <t>ReflectingActivity()</t>
-  </si>
-  <si>
-    <t>ListingActivity()</t>
-  </si>
-  <si>
-    <t>DisplayStartMessage()</t>
-  </si>
-  <si>
-    <t>DisplayEndMessage()</t>
-  </si>
-  <si>
-    <t>PausingSpinner()</t>
-  </si>
-  <si>
-    <t>PausingCountdown()</t>
-  </si>
-  <si>
-    <t>RunBreathingActivity()</t>
-  </si>
-  <si>
-    <t>RunReflectingActivity()</t>
-  </si>
-  <si>
-    <t>RunListingActivity()</t>
-  </si>
-  <si>
-    <t>_activityName: string</t>
-  </si>
-  <si>
-    <t>_activityDescription: string</t>
-  </si>
-  <si>
-    <t>_activityDuration: int</t>
-  </si>
-  <si>
-    <t>_breathIn: string</t>
-  </si>
-  <si>
-    <t>_breathOut: string</t>
-  </si>
-  <si>
-    <t>_listOfListingPrompts: List&lt;string&gt;</t>
-  </si>
-  <si>
-    <t>_listOfReflectingPrompts: List&lt;string&gt;</t>
-  </si>
-  <si>
-    <t>_listOfReflectingQofPrompts: List&lt;string&gt;</t>
-  </si>
-  <si>
-    <t>_listOfAnswersOfPrompts: List&lt;string&gt;</t>
-  </si>
-  <si>
-    <t>GetRandomPrompt(): string</t>
-  </si>
-  <si>
-    <t>GetRandomQonPrompt(): string</t>
-  </si>
-  <si>
-    <t>GetListingPrompt(): striing</t>
-  </si>
-  <si>
     <t>Class BreathingActivity : Activity</t>
   </si>
   <si>
@@ -125,46 +59,115 @@
     <t>Class ListingActivity : Activity</t>
   </si>
   <si>
-    <t>GetListingAnswersOfPrompt(): string</t>
-  </si>
-  <si>
-    <t>DisplayPrompt(): string</t>
-  </si>
-  <si>
-    <t>DisplayListingPrompt(): string</t>
-  </si>
-  <si>
-    <t>DisplayListingAofPrompt(): string</t>
-  </si>
-  <si>
-    <t>GetBreathInMessage(): string</t>
-  </si>
-  <si>
-    <t>GetBreathOutMessage(): string</t>
-  </si>
-  <si>
-    <t>DisplayBreathMessage(): string</t>
-  </si>
-  <si>
-    <t>SetBreathInMessage(): _breathIn</t>
-  </si>
-  <si>
-    <t>SetBreathOutMessage(): _breathOut</t>
-  </si>
-  <si>
-    <t>SetRandomPrompt(): Random(_listOf..Prompts)</t>
-  </si>
-  <si>
-    <t>SetRandomQonPrompt(): Random(_listOf…Qprompts)</t>
-  </si>
-  <si>
-    <t>SetListingPrompt(): _listOfListingPrompts</t>
-  </si>
-  <si>
-    <t>DisplayPrompt&amp;QuestionOfPrompt(): string</t>
-  </si>
-  <si>
-    <t>SetListingAnswersOfPrompt(): _listOfAns…</t>
+    <t>(-)_breathIn: string</t>
+  </si>
+  <si>
+    <t>(-)  _breathOut: string</t>
+  </si>
+  <si>
+    <t>(+) BreathingActivity()</t>
+  </si>
+  <si>
+    <t>(+) GetBreathInMessage(): string</t>
+  </si>
+  <si>
+    <t>(+) SetBreathInMessage(): _breathIn</t>
+  </si>
+  <si>
+    <t>(+) GetBreathOutMessage(): string</t>
+  </si>
+  <si>
+    <t>(+) SetBreathOutMessage(): _breathOut</t>
+  </si>
+  <si>
+    <t>(+) DisplayBreathMessage(): string</t>
+  </si>
+  <si>
+    <t>(+) RunBreathingActivity()</t>
+  </si>
+  <si>
+    <t>(-) _listOfReflectingPrompts: List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>(-) _listOfReflectingQofPrompts: List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>(+) ReflectingActivity()</t>
+  </si>
+  <si>
+    <t>(+) GetRandomPrompt(): string</t>
+  </si>
+  <si>
+    <t>(+) SetRandomPrompt(): Random(_listOf..Prompts)</t>
+  </si>
+  <si>
+    <t>(+) GetRandomQonPrompt(): string</t>
+  </si>
+  <si>
+    <t>(+) SetRandomQonPrompt(): Random(_listOf…Qprompts)</t>
+  </si>
+  <si>
+    <t>(+) DisplayPrompt(): string</t>
+  </si>
+  <si>
+    <t>(+) DisplayPrompt&amp;QuestionOfPrompt(): string</t>
+  </si>
+  <si>
+    <t>(+) RunReflectingActivity()</t>
+  </si>
+  <si>
+    <t>(-) _listOfListingPrompts: List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>(-) _listOfAnswersOfPrompts: List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>(+) ListingActivity()</t>
+  </si>
+  <si>
+    <t>(+) GetListingPrompt(): striing</t>
+  </si>
+  <si>
+    <t>(+) SetListingPrompt(): _listOfListingPrompts</t>
+  </si>
+  <si>
+    <t>(+) GetListingAnswersOfPrompt(): string</t>
+  </si>
+  <si>
+    <t>(+) SetListingAnswersOfPrompt(): _listOfAns…</t>
+  </si>
+  <si>
+    <t>(+) DisplayListingPrompt(): string</t>
+  </si>
+  <si>
+    <t>(+) DisplayListingAofPrompt(): string</t>
+  </si>
+  <si>
+    <t>(+) RunListingActivity()</t>
+  </si>
+  <si>
+    <t>(-) _activityName: string</t>
+  </si>
+  <si>
+    <t>(-) _activityDescription: string</t>
+  </si>
+  <si>
+    <t>(-) _activityDuration: int</t>
+  </si>
+  <si>
+    <t>(+) Activity()</t>
+  </si>
+  <si>
+    <t>(+) DisplayStartMessage()</t>
+  </si>
+  <si>
+    <t>(+) DisplayEndMessage()</t>
+  </si>
+  <si>
+    <t>(+) PausingSpinner()</t>
+  </si>
+  <si>
+    <t>(+) PausingCountdown()</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,6 +291,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -774,14 +780,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330FC073-2FA9-4982-AB3D-1F414550967C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -806,17 +812,17 @@
     </row>
     <row r="6" spans="4:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -825,27 +831,27 @@
     </row>
     <row r="10" spans="4:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="4:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="4:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -854,35 +860,35 @@
     <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
+      <c r="A20" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -892,93 +898,93 @@
     </row>
     <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>